--- a/Files/Questionnaire-point-scores.xlsx
+++ b/Files/Questionnaire-point-scores.xlsx
@@ -62,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -83,6 +83,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -115,6 +116,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -162,11 +166,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="941608755"/>
-        <c:axId val="1095521968"/>
+        <c:axId val="2130016582"/>
+        <c:axId val="2108141353"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="941608755"/>
+        <c:axId val="2130016582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -218,10 +222,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1095521968"/>
+        <c:crossAx val="2108141353"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1095521968"/>
+        <c:axId val="2108141353"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -296,7 +300,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="941608755"/>
+        <c:crossAx val="2130016582"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -359,11 +363,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1627625399"/>
-        <c:axId val="206478133"/>
+        <c:axId val="141977531"/>
+        <c:axId val="103257811"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1627625399"/>
+        <c:axId val="141977531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,10 +419,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206478133"/>
+        <c:crossAx val="103257811"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206478133"/>
+        <c:axId val="103257811"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,7 +497,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627625399"/>
+        <c:crossAx val="141977531"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -556,11 +560,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="401130005"/>
-        <c:axId val="1697839858"/>
+        <c:axId val="2009704927"/>
+        <c:axId val="654573023"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="401130005"/>
+        <c:axId val="2009704927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,10 +616,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697839858"/>
+        <c:crossAx val="654573023"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1697839858"/>
+        <c:axId val="654573023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +694,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401130005"/>
+        <c:crossAx val="2009704927"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -748,11 +752,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="331705579"/>
-        <c:axId val="365501640"/>
+        <c:axId val="2143044431"/>
+        <c:axId val="1817390756"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331705579"/>
+        <c:axId val="2143044431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,10 +808,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365501640"/>
+        <c:crossAx val="1817390756"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365501640"/>
+        <c:axId val="1817390756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +886,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331705579"/>
+        <c:crossAx val="2143044431"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -940,11 +944,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="902350044"/>
-        <c:axId val="1023704639"/>
+        <c:axId val="231245167"/>
+        <c:axId val="1453947566"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="902350044"/>
+        <c:axId val="231245167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,10 +1000,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1023704639"/>
+        <c:crossAx val="1453947566"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1023704639"/>
+        <c:axId val="1453947566"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,7 +1078,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="902350044"/>
+        <c:crossAx val="231245167"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1132,11 +1136,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1848182206"/>
-        <c:axId val="2040809752"/>
+        <c:axId val="868116472"/>
+        <c:axId val="705629253"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1848182206"/>
+        <c:axId val="868116472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,10 +1192,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040809752"/>
+        <c:crossAx val="705629253"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2040809752"/>
+        <c:axId val="705629253"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1270,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1848182206"/>
+        <c:crossAx val="868116472"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1387,11 +1391,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="828635070"/>
-        <c:axId val="1765288313"/>
+        <c:axId val="882948687"/>
+        <c:axId val="1797181920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="828635070"/>
+        <c:axId val="882948687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,10 +1447,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1765288313"/>
+        <c:crossAx val="1797181920"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1765288313"/>
+        <c:axId val="1797181920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1525,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="828635070"/>
+        <c:crossAx val="882948687"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1642,11 +1646,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="306887108"/>
-        <c:axId val="591581469"/>
+        <c:axId val="9609363"/>
+        <c:axId val="2129762193"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="306887108"/>
+        <c:axId val="9609363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,10 +1702,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591581469"/>
+        <c:crossAx val="2129762193"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="591581469"/>
+        <c:axId val="2129762193"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,7 +1780,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306887108"/>
+        <c:crossAx val="9609363"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1897,11 +1901,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="85069610"/>
-        <c:axId val="284793125"/>
+        <c:axId val="47717817"/>
+        <c:axId val="346541599"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85069610"/>
+        <c:axId val="47717817"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,10 +1957,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284793125"/>
+        <c:crossAx val="346541599"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284793125"/>
+        <c:axId val="346541599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +2035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85069610"/>
+        <c:crossAx val="47717817"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3609,8 +3613,8 @@
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="3">
-        <v>46.0</v>
+      <c r="B34" s="6">
+        <v>20.0</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3641,8 +3645,8 @@
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="3">
-        <v>20.0</v>
+      <c r="B35" s="6">
+        <v>46.0</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -30879,9 +30883,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Files/Questionnaire-point-scores.xlsx
+++ b/Files/Questionnaire-point-scores.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>Conforming to its environment</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
   <si>
     <t>Points</t>
@@ -62,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -83,7 +86,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -116,9 +118,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -166,11 +165,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2130016582"/>
-        <c:axId val="2108141353"/>
+        <c:axId val="1752252527"/>
+        <c:axId val="1071715024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130016582"/>
+        <c:axId val="1752252527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -222,10 +221,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108141353"/>
+        <c:crossAx val="1071715024"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108141353"/>
+        <c:axId val="1071715024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -300,7 +299,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130016582"/>
+        <c:crossAx val="1752252527"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -363,11 +362,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141977531"/>
-        <c:axId val="103257811"/>
+        <c:axId val="691784760"/>
+        <c:axId val="1950993479"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141977531"/>
+        <c:axId val="691784760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,10 +418,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103257811"/>
+        <c:crossAx val="1950993479"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103257811"/>
+        <c:axId val="1950993479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,7 +496,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141977531"/>
+        <c:crossAx val="691784760"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -560,11 +559,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2009704927"/>
-        <c:axId val="654573023"/>
+        <c:axId val="873871704"/>
+        <c:axId val="1991483941"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2009704927"/>
+        <c:axId val="873871704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +602,7 @@
         <c:minorTickMark val="none"/>
         <c:spPr/>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
@@ -616,10 +615,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654573023"/>
+        <c:crossAx val="1991483941"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="654573023"/>
+        <c:axId val="1991483941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,7 +693,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2009704927"/>
+        <c:crossAx val="873871704"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -752,11 +751,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2143044431"/>
-        <c:axId val="1817390756"/>
+        <c:axId val="335523998"/>
+        <c:axId val="209648779"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143044431"/>
+        <c:axId val="335523998"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,10 +807,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1817390756"/>
+        <c:crossAx val="209648779"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1817390756"/>
+        <c:axId val="209648779"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +885,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143044431"/>
+        <c:crossAx val="335523998"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -944,11 +943,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="231245167"/>
-        <c:axId val="1453947566"/>
+        <c:axId val="1167351435"/>
+        <c:axId val="688900724"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231245167"/>
+        <c:axId val="1167351435"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,10 +999,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1453947566"/>
+        <c:crossAx val="688900724"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1453947566"/>
+        <c:axId val="688900724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1077,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231245167"/>
+        <c:crossAx val="1167351435"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1136,11 +1135,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="868116472"/>
-        <c:axId val="705629253"/>
+        <c:axId val="976575213"/>
+        <c:axId val="742379667"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="868116472"/>
+        <c:axId val="976575213"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,10 +1191,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705629253"/>
+        <c:crossAx val="742379667"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="705629253"/>
+        <c:axId val="742379667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1269,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="868116472"/>
+        <c:crossAx val="976575213"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1351,12 +1350,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ark1'!$B$12:$Z$12</c:f>
+              <c:f>'Ark1'!$B$12:$G$12</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$B$14:$Z$14</c:f>
+              <c:f>'Ark1'!$B$14:$G$14</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1381,21 +1380,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ark1'!$B$12:$Z$12</c:f>
+              <c:f>'Ark1'!$B$12:$G$12</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$B$15:$Z$15</c:f>
+              <c:f>'Ark1'!$B$15:$G$15</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="882948687"/>
-        <c:axId val="1797181920"/>
+        <c:axId val="2145781322"/>
+        <c:axId val="1960135290"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="882948687"/>
+        <c:axId val="2145781322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,10 +1446,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1797181920"/>
+        <c:crossAx val="1960135290"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1797181920"/>
+        <c:axId val="1960135290"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1525,7 +1524,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="882948687"/>
+        <c:crossAx val="2145781322"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1606,12 +1605,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ark1'!$B$7:$Z$7</c:f>
+              <c:f>'Ark1'!$B$7:$G$7</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$B$9:$Z$9</c:f>
+              <c:f>'Ark1'!$B$9:$G$9</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1636,21 +1635,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ark1'!$B$7:$Z$7</c:f>
+              <c:f>'Ark1'!$B$7:$G$7</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$B$10:$Z$10</c:f>
+              <c:f>'Ark1'!$B$10:$G$10</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="9609363"/>
-        <c:axId val="2129762193"/>
+        <c:axId val="1579684976"/>
+        <c:axId val="277989075"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="9609363"/>
+        <c:axId val="1579684976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1702,10 +1701,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129762193"/>
+        <c:crossAx val="277989075"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129762193"/>
+        <c:axId val="277989075"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1779,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9609363"/>
+        <c:crossAx val="1579684976"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1861,12 +1860,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ark1'!$B$2:$Z$2</c:f>
+              <c:f>'Ark1'!$B$2:$G$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$B$4:$Z$4</c:f>
+              <c:f>'Ark1'!$B$4:$G$4</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1891,21 +1890,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ark1'!$B$2:$Z$2</c:f>
+              <c:f>'Ark1'!$B$2:$G$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$B$5:$Z$5</c:f>
+              <c:f>'Ark1'!$B$5:$G$5</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="47717817"/>
-        <c:axId val="346541599"/>
+        <c:axId val="1408109853"/>
+        <c:axId val="284798182"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47717817"/>
+        <c:axId val="1408109853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,10 +1956,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346541599"/>
+        <c:crossAx val="284798182"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346541599"/>
+        <c:axId val="284798182"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2035,7 +2034,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47717817"/>
+        <c:crossAx val="1408109853"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2195,7 +2194,7 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1476375" cy="895350"/>
+    <xdr:ext cx="1476375" cy="876300"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 6" title="Diagram"/>
@@ -2215,8 +2214,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
@@ -2240,8 +2239,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -2265,8 +2264,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
@@ -2544,7 +2543,9 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2566,7 +2567,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -2606,7 +2607,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>7.0</v>
@@ -2627,7 +2628,10 @@
         <f>B4*B3+C4*C3+D4*D3+E4*E3+F4*F3</f>
         <v>188</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H5" si="1">G4/SUM(B4:F4)</f>
+        <v>2.848484848</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2649,7 +2653,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>3.0</v>
@@ -2670,7 +2674,10 @@
         <f>B5*B3+C5*C3+D5*D3+E5*E3+F5*F3</f>
         <v>210</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>3.181818182</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -2698,7 +2705,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <f>H5-H4</f>
+        <v>0.3333333333</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -2720,7 +2730,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -2762,7 +2772,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>1.0</v>
@@ -2802,7 +2812,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>32.0</v>
@@ -2823,7 +2833,10 @@
         <f>B9*B8+C9*C8+D9*D8+E9*E8+F9*F8</f>
         <v>135</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <f t="shared" ref="H9:H10" si="2">G9/SUM(B9:F9)</f>
+        <v>2.045454545</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2845,7 +2858,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>15.0</v>
@@ -2866,7 +2879,10 @@
         <f>B10*B8+C10*C8+D10*D8+E10*E8+F10*F8</f>
         <v>158</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>2.393939394</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -2894,7 +2910,10 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <f>H10-H9</f>
+        <v>0.3484848485</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2916,7 +2935,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
@@ -2958,7 +2977,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
         <v>1.0</v>
@@ -2998,7 +3017,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3">
         <v>6.0</v>
@@ -3019,7 +3038,10 @@
         <f>B14*B13+C14*C13+D14*D13+E14*E13+F14*F13</f>
         <v>189</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4">
+        <f t="shared" ref="H14:H15" si="3">G14/SUM(B14:F14)</f>
+        <v>2.863636364</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -3041,7 +3063,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3">
         <v>6.0</v>
@@ -3062,7 +3084,10 @@
         <f>B15*B13+C15*C13+D15*D13+E15*E13+F15*F13</f>
         <v>230</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4">
+        <f t="shared" si="3"/>
+        <v>3.484848485</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -3090,7 +3115,10 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4">
+        <f>H15-H14</f>
+        <v>0.6212121212</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -3140,9 +3168,12 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4">
+        <f>(H6+H11+H16)/3</f>
+        <v>0.4343434343</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -3194,7 +3225,7 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3">
         <v>52.0</v>
@@ -3226,7 +3257,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3">
         <v>14.0</v>
@@ -3286,7 +3317,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3316,7 +3347,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" s="3">
         <v>21.0</v>
@@ -3347,7 +3378,7 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3">
         <v>45.0</v>
@@ -3407,7 +3438,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3437,7 +3468,7 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" s="3">
         <v>48.0</v>
@@ -3469,7 +3500,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" s="3">
         <v>18.0</v>
@@ -3557,7 +3588,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -3611,9 +3642,9 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="3">
         <v>20.0</v>
       </c>
       <c r="C34" s="4"/>
@@ -3643,9 +3674,9 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="3">
         <v>46.0</v>
       </c>
       <c r="C35" s="4"/>
@@ -3703,7 +3734,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3733,7 +3764,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" s="3">
         <v>21.0</v>
@@ -3765,7 +3796,7 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39" s="3">
         <v>45.0</v>
@@ -3825,7 +3856,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3855,7 +3886,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42" s="3">
         <v>21.0</v>
@@ -3887,7 +3918,7 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" s="3">
         <v>45.0</v>
